--- a/src/excel/ScheduleSupportingData- Vaccine Group-508.xlsx
+++ b/src/excel/ScheduleSupportingData- Vaccine Group-508.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.52 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.61 - 508\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C3975C-D5A7-49EC-9DE4-BCA8ECD00976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1012B15-8AEB-477C-9F56-B9F369194C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="20736" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vaccine Groups" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="58">
   <si>
     <t>Vaccine Group</t>
   </si>
@@ -160,9 +160,6 @@
     <t>HepA | HepB</t>
   </si>
   <si>
-    <t>Other CDSi resources used HepA or HepB.  All resources are being updated to reflect the abbreviaions used by ACIP for consistency purposes.</t>
-  </si>
-  <si>
     <t>HepA</t>
   </si>
   <si>
@@ -200,6 +197,15 @@
   </si>
   <si>
     <t>Publication Date: 01/02/2024</t>
+  </si>
+  <si>
+    <t>Chikungunya</t>
+  </si>
+  <si>
+    <t>Other CDSi resources used HepA or HepB.  All resources are being updated to reflect the abbreviations used by ACIP for consistency purposes.</t>
+  </si>
+  <si>
+    <t>Publication Date: 02/06/2025</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -758,17 +764,17 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -777,7 +783,7 @@
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -786,25 +792,25 @@
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -813,7 +819,7 @@
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -822,7 +828,7 @@
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -831,7 +837,7 @@
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -840,7 +846,7 @@
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -849,25 +855,25 @@
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -876,70 +882,70 @@
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>54</v>
+      <c r="A22" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -947,42 +953,51 @@
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C27">
+    <sortCondition ref="A3:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -991,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1008,10 +1023,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="15">
-        <v>4.5199999999999996</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,10 +1063,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1059,10 +1074,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="15">
-        <v>4.45</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,10 +1114,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1110,7 +1125,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="15">
-        <v>4.3</v>
+        <v>4.45</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,15 +1168,15 @@
         <v>51</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
-        <v>4.2300000000000004</v>
+      <c r="B13" s="15">
+        <v>4.3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,7 +1216,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1206,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>4.8</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,7 +1264,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1254,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="5">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,18 +1309,18 @@
         <v>21</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="12">
-        <v>3.4</v>
+      <c r="B25" s="5">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,7 +1344,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="8">
@@ -1339,213 +1357,261 @@
         <v>21</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="8">
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="8">
         <v>2</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="F32" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B34" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="8">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="8">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="8">
         <v>2</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B39" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="8">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="8">
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="8">
         <v>2</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B44" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="8">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>22</v>
       </c>
     </row>
